--- a/vivo/data/tg478/tg478.xlsx
+++ b/vivo/data/tg478/tg478.xlsx
@@ -1,41 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="default_1" r:id="rId3" sheetId="1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,60 +45,425 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Chemical</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>CasRN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Genotoxicity_maj</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Genotoxicity_consv</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>SMILES</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>consv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>maj</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Perhydro-1,3,5-trinitro-1,3,5-triazine</t>
+          <t>Distillates (petroleum), catalytic reformed hydrotreated light, C8-12 arom. fraction</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>121-82-4</t>
+          <t>85116-58-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -107,23 +474,18 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[O-][N+](=O)N1CN(CN(C1)[N+]([O-])=O)[N+]([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Paraquat-dichloride</t>
+          <t>Perhydro-1,3,5-trinitro-1,3,5-triazine</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1910-42-5</t>
+          <t>121-82-4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -134,77 +496,62 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[Cl-].[Cl-].C[N+]1=CC=C(C=C1)C1=CC=[N+](C)C=C1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bis(2-ethylhexyl) phthalate</t>
+          <t>Distillates (petroleum), naphtha steam cracking-derived, hydrotreated light arom.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>117-81-7</t>
+          <t>91995-50-5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CCCCC(CC)COC(=O)C1=C(C=CC=C1)C(=O)OCC(CC)CCCC</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(epoxyethyl)benzene</t>
+          <t>Gases (petroleum), butane splitter overheads</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>96-09-3</t>
+          <t>68477-69-0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C1OC1C1=CC=CC=C1</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2-methoxyethanol</t>
+          <t>Paraquat-dichloride</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>109-86-4</t>
+          <t>1910-42-5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -215,50 +562,40 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>COCCO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Calcium tartrate</t>
+          <t>Bis(2-ethylhexyl) phthalate</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3164-34-9</t>
+          <t>117-81-7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[Ca++].O[C@H]([C@@H](O)C([O-])=O)C([O-])=O</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4-methylstyrene</t>
+          <t>(epoxyethyl)benzene</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>622-97-9</t>
+          <t>96-09-3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -269,23 +606,18 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CC1=CC=C(C=C)C=C1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2-propylvaleric acid</t>
+          <t>Solvent naphtha (petroleum), heavy aliph.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>99-66-1</t>
+          <t>64742-96-7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -296,23 +628,18 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>CCCC(CCC)C(O)=O</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sodium 4-(methoxycarbonyl)phenolate</t>
+          <t>Diisononyl adipate</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5026-62-0</t>
+          <t>33703-08-1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -323,23 +650,18 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[Na+].COC(=O)C1=CC=C([O-])C=C1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3-chloropropene</t>
+          <t>2-methoxyethanol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>107-05-1</t>
+          <t>109-86-4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -350,23 +672,18 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ClCC=C</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cyproconazole (ISO); (2RS,3RS;2RS,3SR)-2-(4-chlorophenyl)-3-cyclopropyl-1-(1H-1,2,4-triazol-1-yl)butan-2-ol</t>
+          <t>Xylenol</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>94361-06-5</t>
+          <t>1300-71-6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -377,23 +694,18 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CC(C1CC1)C(O)(CN1C=NC=N1)C1=CC=C(Cl)C=C1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hexamethylene bis[3-(3,5-di-tert-butyl-4-hydroxyphenyl)propionate]</t>
+          <t>Calcium tartrate</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>35074-77-2</t>
+          <t>3164-34-9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -404,50 +716,40 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>CC(C)(C)C1=CC(CCC(=O)OCCCCCCOC(=O)CCC2=CC(=C(O)C(=C2)C(C)(C)C)C(C)(C)C)=CC(=C1O)C(C)(C)C</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Calcium dibenzoate</t>
+          <t>Hydrocarbons, C4, steam-cracker distillate</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2090-05-3</t>
+          <t>92045-23-3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[Ca++].[O-]C(=O)C1=CC=CC=C1.[O-]C(=O)C1=CC=CC=C1</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Etidronic acid</t>
+          <t>4-methylstyrene</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2809-21-4</t>
+          <t>622-97-9</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -458,77 +760,62 @@
       <c r="D15" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>CC(O)(P(O)(O)=O)P(O)(O)=O</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dimethyl propylphosphonate</t>
+          <t>2-propylvaleric acid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>18755-43-6</t>
+          <t>99-66-1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>CCCP(=O)(OC)OC</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Theobromine</t>
+          <t>Sodium 4-(methoxycarbonyl)phenolate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>83-67-0</t>
+          <t>5026-62-0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>CN1C=NC2=C1C(=O)NC(=O)N2C</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tetrasodium 4,4'-bis[[4-[bis(2-hydroxyethyl)amino]-6-(4-sulphonatoanilino)-1,3,5-triazin-2-yl]amino]stilbene-2,2'-disulphonate]</t>
+          <t>3-chloropropene</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16470-24-9</t>
+          <t>107-05-1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -539,23 +826,18 @@
       <c r="D18" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].[Na+].[Na+].OCCN(CCO)C1=NC(NC2=CC=C(C=CC3=CC=C(NC4=NC(NC5=CC=C(C=C5)S([O-])(=O)=O)=NC(=N4)N(CCO)CCO)C=C3S([O-])(=O)=O)C(=C2)S([O-])(=O)=O)=NC(NC2=CC=C(C=C2)S([O-])(=O)=O)=N1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2,3,4-trichlorobut-1-ene</t>
+          <t>Silicic acid, calcium salt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2431-50-7</t>
+          <t>1344-95-2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -566,23 +848,18 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ClCC(Cl)C(Cl)=C</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Butanoic acid, 3-oxo-, 1,1'-[2-[(1,3-dioxobutoxy)methyl]-2-ethyl-1,3-propanediyl] ester</t>
+          <t>cyproconazole (ISO); (2RS,3RS;2RS,3SR)-2-(4-chlorophenyl)-3-cyclopropyl-1-(1H-1,2,4-triazol-1-yl)butan-2-ol</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22208-25-9</t>
+          <t>94361-06-5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -593,23 +870,18 @@
       <c r="D20" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>CCC(COC(=O)CC(C)=O)(COC(=O)CC(C)=O)COC(=O)CC(C)=O</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sodium dodecyl sulphate</t>
+          <t>Fumes, silica</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>151-21-3</t>
+          <t>69012-64-2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -620,23 +892,18 @@
       <c r="D21" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[Na+].CCCCCCCCCCCCOS([O-])(=O)=O</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tetradecanol</t>
+          <t>Nonanol, branched and linear</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>112-72-1</t>
+          <t>68515-81-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -647,23 +914,18 @@
       <c r="D22" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[2S-[2α,5α,6β(S*)]]-6-[[[[(4-ethyl-2,3-dioxopiperazin-1-yl)carbonyl]amino]phenylacetyl]amino]-3,3-dimethyl-7-oxo-4-thia-1-azabicyclo[3.2.0]heptane-2-carboxylic acid</t>
+          <t>Hexamethylene bis[3-(3,5-di-tert-butyl-4-hydroxyphenyl)propionate]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>61477-96-1</t>
+          <t>35074-77-2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -674,23 +936,18 @@
       <c r="D23" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>[H][C@]12SC(C)(C)[C@@H](N1C(=O)[C@H]2NC(=O)[C@H](NC(=O)N1CCN(CC)C(=O)C1=O)C1=CC=CC=C1)C(O)=O</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1,3,5-trioxane</t>
+          <t>Calcium dibenzoate</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>110-88-3</t>
+          <t>2090-05-3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -701,23 +958,18 @@
       <c r="D24" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>C1OCOCO1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1,3-dioxolane</t>
+          <t>Etidronic acid</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>646-06-0</t>
+          <t>2809-21-4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -728,23 +980,18 @@
       <c r="D25" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>C1COCO1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bumetrizole</t>
+          <t>Hydrocarbons, C4, 1,3-butadiene-free, polymd., tetraisobutylene fraction, hydrogenated</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3896-11-5</t>
+          <t>93685-80-4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -755,50 +1002,40 @@
       <c r="D26" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>CC1=CC(=C(O)C(=C1)N1N=C2C=CC(Cl)=CC2=N1)C(C)(C)C</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>chloromethane; methyl chloride</t>
+          <t>Gases (petroleum), crude distn. and catalytic cracking</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>74-87-3</t>
+          <t>68989-88-8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>positive</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>CCl</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>(+)-tartaric acid</t>
+          <t>Distillates (petroleum), cracked stripped steam-cracked petroleum distillates, C8-10 fraction</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>87-69-4</t>
+          <t>68477-39-4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -809,77 +1046,62 @@
       <c r="D28" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>O[C@H]([C@@H](O)C(O)=O)C(O)=O</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>N,N-dimethylacetamide</t>
+          <t>Dimethyl propylphosphonate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>127-19-5</t>
+          <t>18755-43-6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CN(C)C(C)=O</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Disodium dihydrogenpyrophosphate</t>
+          <t>Theobromine</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7758-16-9</t>
+          <t>83-67-0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].OP([O-])(=O)OP(O)([O-])=O</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Methacrylic anhydride</t>
+          <t>Naphtha (petroleum), steam-cracked, hydrotreated, C9-10-arom.-rich</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>760-93-0</t>
+          <t>90641-13-7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -890,23 +1112,18 @@
       <c r="D31" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>CC(=C)C(=O)OC(=O)C(C)=C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tris(2,4-ditert-butylphenyl) phosphite</t>
+          <t>Aluminium oxide</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>31570-04-4</t>
+          <t>1344-28-1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -917,23 +1134,18 @@
       <c r="D32" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>CC(C)(C)C1=CC(=C(OP(OC2=CC=C(C=C2C(C)(C)C)C(C)(C)C)OC2=CC=C(C=C2C(C)(C)C)C(C)(C)C)C=C1)C(C)(C)C</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Disodium 2,2'-([1,1'-biphenyl]-4,4'-diyldivinylene)bis(benzenesulphonate)</t>
+          <t>Tetrasodium 4,4'-bis[[4-[bis(2-hydroxyethyl)amino]-6-(4-sulphonatoanilino)-1,3,5-triazin-2-yl]amino]stilbene-2,2'-disulphonate]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>27344-41-8</t>
+          <t>16470-24-9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -944,50 +1156,40 @@
       <c r="D33" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].[O-]S(=O)(=O)C1=CC=CC=C1C=CC1=CC=C(C=C1)C1=CC=C(C=CC2=CC=CC=C2S([O-])(=O)=O)C=C1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>N-(hydroxymethyl)acrylamide</t>
+          <t>Hydrocarbons, C9-11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>924-42-5</t>
+          <t>1174522-20-3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>OCNC(=O)C=C</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Potassium hydrogen tartrate</t>
+          <t>Naphtha (petroleum), hydrotreated light steam-cracked</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>868-14-4</t>
+          <t>92045-57-3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -998,23 +1200,18 @@
       <c r="D35" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>[K+].O[C@H]([C@@H](O)C([O-])=O)C(O)=O</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dicyclohexylamine</t>
+          <t>2,3,4-trichlorobut-1-ene</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>101-83-7</t>
+          <t>2431-50-7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1025,50 +1222,40 @@
       <c r="D36" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>C1CCC(CC1)NC1CCCCC1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Diethyl sulphate</t>
+          <t>Butanoic acid, 3-oxo-, 1,1'-[2-[(1,3-dioxobutoxy)methyl]-2-ethyl-1,3-propanediyl] ester</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>64-67-5</t>
+          <t>22208-25-9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>CCOS(=O)(=O)OCC</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hydroquinone</t>
+          <t>Sodium dodecyl sulphate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>123-31-9</t>
+          <t>151-21-3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1079,23 +1266,18 @@
       <c r="D38" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>OC1=CC=C(O)C=C1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Piperonal</t>
+          <t>Tetradecanol</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>120-57-0</t>
+          <t>112-72-1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1106,23 +1288,18 @@
       <c r="D39" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>O=CC1=CC=C2OCOC2=C1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2-isocyanatoethyl methacrylate</t>
+          <t>Zinc O,O,O',O'-tetrabutyl bis(phosphorodithioate)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>30674-80-7</t>
+          <t>6990-43-8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1133,23 +1310,18 @@
       <c r="D40" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>CC(=C)C(=O)OCCN=C=O</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bis(hydroxyethyl) terephthalate</t>
+          <t>Hydrocarbons, C5-8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>959-26-2</t>
+          <t>92128-65-9</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1160,50 +1332,40 @@
       <c r="D41" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>OCCOC(=O)C1=CC=C(C=C1)C(=O)OCCO</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tetracosanol</t>
+          <t>Naphtha (petroleum), light steam-cracked arom.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>506-51-4</t>
+          <t>68527-23-1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCCCCCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2-(2H-benzotriazol-2-yl)-p-cresol</t>
+          <t>Hydrocarbons, C10-C13, isoalkanes, cyclics, &lt;2% aromatics</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2440-22-4</t>
+          <t>68551-17-7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1214,50 +1376,40 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>CC1=CC(N2N=C3C=CC=CC3=N2)=C(O)C=C1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bis(2-ethylhexyl) adipate</t>
+          <t>Hydrocarbons, C3-4</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>103-23-1</t>
+          <t>68476-40-4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>CCCCC(CC)COC(=O)CCCCC(=O)OCC(CC)CCCC</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nonan-1-ol</t>
+          <t>[2S-[2α,5α,6β(S*)]]-6-[[[[(4-ethyl-2,3-dioxopiperazin-1-yl)carbonyl]amino]phenylacetyl]amino]-3,3-dimethyl-7-oxo-4-thia-1-azabicyclo[3.2.0]heptane-2-carboxylic acid</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>143-08-8</t>
+          <t>61477-96-1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1268,50 +1420,40 @@
       <c r="D45" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>N-cyclohexyl-N-methylcyclohexylamine</t>
+          <t>Gases (petroleum), refinery blend</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7560-83-0</t>
+          <t>68783-07-3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>CN(C1CCCCC1)C1CCCCC1</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cyclohexanone</t>
+          <t>1,3,5-trioxane</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>108-94-1</t>
+          <t>110-88-3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1322,23 +1464,18 @@
       <c r="D47" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>O=C1CCCCC1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>p-cresol</t>
+          <t>1,3-dioxolane</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>106-44-5</t>
+          <t>646-06-0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1349,23 +1486,18 @@
       <c r="D48" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>CC1=CC=C(O)C=C1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Disodium 4,4'-bis[[6-anilino-4-[(2-hydroxyethyl)methylamino]-1,3,5-triazin-2-yl]amino]stilbene-2,2'-disulphonate</t>
+          <t>Bumetrizole</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>13863-31-5</t>
+          <t>3896-11-5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1376,50 +1508,40 @@
       <c r="D49" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].CN(CCO)C1=NC(NC2=CC=C(C=CC3=CC=C(NC4=NC(NC5=CC=CC=C5)=NC(=N4)N(C)CCO)C=C3S([O-])(=O)=O)C(=C2)S([O-])(=O)=O)=NC(NC2=CC=CC=C2)=N1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2,4-di-tert-butylphenyl 3,5-di-tert-butyl-4-hydroxybenzoate</t>
+          <t>chloromethane; methyl chloride</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4221-80-1</t>
+          <t>74-87-3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>CC(C)(C)C1=CC(=C(OC(=O)C2=CC(=C(O)C(=C2)C(C)(C)C)C(C)(C)C)C=C1)C(C)(C)C</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>N,N'-hexane-1,6-diylbis[3-(3,5-di-tert-butyl-4-hydroxyphenylpropionamide]</t>
+          <t>(+)-tartaric acid</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23128-74-7</t>
+          <t>87-69-4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1430,23 +1552,18 @@
       <c r="D51" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>CC(C)(C)C1=CC(CCC(=O)NCCCCCCNC(=O)CCC2=CC(=C(O)C(=C2)C(C)(C)C)C(C)(C)C)=CC(=C1O)C(C)(C)C</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Trisodium hydrogen diphosphate</t>
+          <t>N,N-dimethylacetamide</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>14691-80-6</t>
+          <t>127-19-5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1457,23 +1574,18 @@
       <c r="D52" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].[Na+].OP([O-])(=O)OP([O-])([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2-methyl-p-phenylenediamine sulfate</t>
+          <t>Tar acids, xylenol fraction</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>615-50-9</t>
+          <t>84989-06-0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1484,23 +1596,18 @@
       <c r="D53" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[O-]S([O-])(=O)=O.CC1=C([NH3+])C=CC([NH3+])=C1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>(p-ammoniophenyl)bis(2-hydroxyethyl)ammonium sulphate</t>
+          <t>Disodium dihydrogenpyrophosphate</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>54381-16-7</t>
+          <t>7758-16-9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1511,23 +1618,18 @@
       <c r="D54" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>OS(O)(=O)=O.NC1=CC=C(C=C1)N(CCO)CCO</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tetrasodium 4,4'-bis[[4-[bis(2-hydroxypropyl)amino]-6-[(4-sulphonatophenyl)amino]-1,3,5-triazin-2-yl]amino]-stilbene-2,2'-disulphonate</t>
+          <t>Methacrylic anhydride</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>67786-25-8</t>
+          <t>760-93-0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1538,23 +1640,18 @@
       <c r="D55" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].[Na+].[Na+].CC(O)CN(CC(C)O)C1=NC(NC2=CC(=C(C=CC3=C(C=C(NC4=NC(=NC(NC5=CC=C(C=C5)S([O-])(=O)=O)=N4)N(CC(C)O)CC(C)O)C=C3)S([O-])(=O)=O)C=C2)S([O-])(=O)=O)=NC(NC2=CC=C(C=C2)S([O-])(=O)=O)=N1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1,3,5-Triazine-2,4-diamine, N2,N2,N4,N4-tetrabutyl-6-chloro-</t>
+          <t>Distillates (petroleum), steam-cracked</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>39605-45-3</t>
+          <t>64742-91-2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1565,50 +1662,40 @@
       <c r="D56" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>CCCCN(CCCC)C1=NC(=NC(Cl)=N1)N(CCCC)CCCC</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2-chloroacetamide</t>
+          <t>Naphtha (petroleum), light steam-cracked</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>79-07-2</t>
+          <t>64742-83-2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>NC(=O)CCl</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Tetrakis(hydroxymethyl)phosphonium sulphate(2:1)</t>
+          <t>Dinitrotoluene</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>55566-30-8</t>
+          <t>25321-14-6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1619,23 +1706,18 @@
       <c r="D58" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>[O-]S([O-])(=O)=O.OC[P+](CO)(CO)CO.OC[P+](CO)(CO)CO</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4-[(morpholinothio)thioxomethyl]morpholine</t>
+          <t>Tris(2,4-ditert-butylphenyl) phosphite</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>13752-51-7</t>
+          <t>31570-04-4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1646,23 +1728,18 @@
       <c r="D59" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>S=C(SN1CCOCC1)N1CCOCC1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Octan-1-ol</t>
+          <t>Disodium 2,2'-([1,1'-biphenyl]-4,4'-diyldivinylene)bis(benzenesulphonate)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>111-87-5</t>
+          <t>27344-41-8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1673,50 +1750,40 @@
       <c r="D60" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>CCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Disodium 4,4'-bis[[4-anilino-6-[(2-carbamoylethyl)(2-hydroxyethyl)amino]-1,3,5,-triazin-2-yl]amino]stilbene-2,2'-disulphonate</t>
+          <t>Gases (petroleum), light steam-cracked, butadiene conc.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>27344-06-5</t>
+          <t>68955-28-2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].NC(=O)CCN(CCO)C1=NC(NC2=CC(=C(C=CC3=C(C=C(NC4=NC(NC5=CC=CC=C5)=NC(=N4)N(CCO)CCC(N)=O)C=C3)S([O-])(=O)=O)C=C2)S([O-])(=O)=O)=NC(NC2=CC=CC=C2)=N1</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Hydrogen sulphide</t>
+          <t>Gasoline, straight-run, topping-plant</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7783-06-4</t>
+          <t>68606-11-1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1727,50 +1794,40 @@
       <c r="D62" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>S</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Methyl 4-hydroxybenzoate</t>
+          <t>N-(hydroxymethyl)acrylamide</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>99-76-3</t>
+          <t>924-42-5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>COC(=O)C1=CC=C(O)C=C1</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2-methyl-1-heptanol</t>
+          <t>Potassium hydrogen tartrate</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>60435-70-3</t>
+          <t>868-14-4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1781,50 +1838,40 @@
       <c r="D64" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>CCCCCC(C)CO</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Chlorine dioxide</t>
+          <t>Extracts (petroleum), light naphtha solvent</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10049-04-4</t>
+          <t>64741-99-7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[O][Cl]=O</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5-amino-o-cresol</t>
+          <t>Sulfuric acid, mono-C8-18-alkyl esters, magnesium salts, compds. with triethanolamine</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2835-95-2</t>
+          <t>85586-38-5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1835,23 +1882,18 @@
       <c r="D66" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>CC1=C(O)C=C(N)C=C1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Didodecyl 3,3'-thiodipropionate</t>
+          <t>Dicyclohexylamine</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>123-28-4</t>
+          <t>101-83-7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1862,50 +1904,40 @@
       <c r="D67" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCOC(=O)CCSCCC(=O)OCCCCCCCCCCCC</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>N-1-naphthylaniline</t>
+          <t>Diethyl sulphate</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>90-30-2</t>
+          <t>64-67-5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>N(C1=CC=CC=C1)C1=C2C=CC=CC2=CC=C1</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Methyl methacrylate</t>
+          <t>Hydroquinone</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>80-62-6</t>
+          <t>123-31-9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1916,23 +1948,18 @@
       <c r="D69" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>COC(=O)C(C)=C</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Acetaldehyde oxime</t>
+          <t>Naphtha (petroleum), light steam-cracked, thermally treated</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>107-29-9</t>
+          <t>98219-47-7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1943,23 +1970,18 @@
       <c r="D70" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>CC=NO</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>N-hexane</t>
+          <t>Octamethylcyclotetrasiloxane</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>110-54-3</t>
+          <t>556-67-2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1970,23 +1992,18 @@
       <c r="D71" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>CCCCCC</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>O-(4-bromo-2-chlorophenyl) O-ethyl S-propyl phosphorothioate</t>
+          <t>Piperonal</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>41198-08-7</t>
+          <t>120-57-0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1997,23 +2014,18 @@
       <c r="D72" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>CCCSP(=O)(OCC)OC1=C(Cl)C=C(Br)C=C1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Formamide</t>
+          <t>2-isocyanatoethyl methacrylate</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>75-12-7</t>
+          <t>30674-80-7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2024,23 +2036,18 @@
       <c r="D73" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>NC=O</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Isobutyl methacrylate</t>
+          <t>Bis(hydroxyethyl) terephthalate</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>97-86-9</t>
+          <t>959-26-2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2051,23 +2058,18 @@
       <c r="D74" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>CC(C)COC(=O)C(C)=C</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>(tert-butoxymethyl)oxirane</t>
+          <t>Tetracosanol</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7665-72-7</t>
+          <t>506-51-4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2078,23 +2080,18 @@
       <c r="D75" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>CC(C)(C)OCC1CO1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>N-methylacetamide</t>
+          <t>2-(2H-benzotriazol-2-yl)-p-cresol</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>79-16-3</t>
+          <t>2440-22-4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2105,50 +2102,40 @@
       <c r="D76" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>CNC(C)=O</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>N,N'-methylenediacrylamide</t>
+          <t>Bis(2-ethylhexyl) adipate</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>110-26-9</t>
+          <t>103-23-1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>C=CC(=O)NCNC(=O)C=C</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>o-xylene</t>
+          <t>Natural gas condensates (petroleum)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>95-47-6</t>
+          <t>64741-47-5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2159,23 +2146,18 @@
       <c r="D78" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>CC1=C(C)C=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sodium benzoate</t>
+          <t>Nonan-1-ol</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>532-32-1</t>
+          <t>143-08-8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2186,77 +2168,62 @@
       <c r="D79" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[Na+].[O-]C(=O)C1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4,4'-bis[4-[bis(2-hydroxyethyl)amino]-6-anilino-1,3,5-triazin-2-yl]amino]stilbene-2,2'-disulphonic acid</t>
+          <t>Fusel oil</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4404-43-7</t>
+          <t>8013-75-0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>OCCN(CCO)C1=NC(NC2=CC=C(C=CC3=CC=C(NC4=NC(NC5=CC=CC=C5)=NC(=N4)N(CCO)CCO)C=C3S(O)(=O)=O)C(=C2)S(O)(=O)=O)=NC(NC2=CC=CC=C2)=N1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hexachlorocyclopentadiene</t>
+          <t>Gases (petroleum), C2-4, sweetened</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>77-47-4</t>
+          <t>68783-65-3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>ClC1=C(Cl)C(Cl)(Cl)C(Cl)=C1Cl</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ametryn</t>
+          <t>N-cyclohexyl-N-methylcyclohexylamine</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>834-12-8</t>
+          <t>7560-83-0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2267,23 +2234,18 @@
       <c r="D82" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>CCNC1=NC(SC)=NC(NC(C)C)=N1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Biphenyl-2-ol</t>
+          <t>Cyclohexanone</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>90-43-7</t>
+          <t>108-94-1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2294,50 +2256,40 @@
       <c r="D83" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>OC1=C(C=CC=C1)C1=CC=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Acrylamide</t>
+          <t>p-cresol</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>79-06-1</t>
+          <t>106-44-5</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>NC(=O)C=C</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1,2,3-trichloropropane</t>
+          <t>Disodium 4,4'-bis[[6-anilino-4-[(2-hydroxyethyl)methylamino]-1,3,5-triazin-2-yl]amino]stilbene-2,2'-disulphonate</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>96-18-4</t>
+          <t>13863-31-5</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2348,23 +2300,18 @@
       <c r="D85" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>ClCC(Cl)CCl</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Pentaerythritol tetrakis(3-(3,5-di-tert-butyl-4-hydroxyphenyl)propionate)</t>
+          <t>2,4-di-tert-butylphenyl 3,5-di-tert-butyl-4-hydroxybenzoate</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6683-19-8</t>
+          <t>4221-80-1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2375,23 +2322,18 @@
       <c r="D86" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>CC(C)(C)C1=CC(CCC(=O)OCC(COC(=O)CCC2=CC(=C(O)C(=C2)C(C)(C)C)C(C)(C)C)(COC(=O)CCC2=CC(=C(O)C(=C2)C(C)(C)C)C(C)(C)C)COC(=O)CCC2=CC(=C(O)C(=C2)C(C)(C)C)C(C)(C)C)=CC(=C1O)C(C)(C)C</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hexadecan-1-ol</t>
+          <t>N,N'-hexane-1,6-diylbis[3-(3,5-di-tert-butyl-4-hydroxyphenylpropionamide]</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>36653-82-4</t>
+          <t>23128-74-7</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2402,50 +2344,40 @@
       <c r="D87" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Carbazole</t>
+          <t>Dicyclopentyldimethoxysilane</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>86-74-8</t>
+          <t>126990-35-0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>N1C2=CC=CC=C2C2=C1C=CC=C2</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Butyl methacrylate</t>
+          <t>Trisodium hydrogen diphosphate</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>97-88-1</t>
+          <t>14691-80-6</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2456,23 +2388,18 @@
       <c r="D89" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>CCCCOC(=O)C(C)=C</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Crotonaldehyde</t>
+          <t>Gases (petroleum), catalytic reformed naphtha stripper overheads</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4170-30-3</t>
+          <t>68477-77-0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2483,23 +2410,18 @@
       <c r="D90" t="inlineStr">
         <is>
           <t>positive</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>CC=CC=O</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Hexasodium 2,2'-[vinylenebis[(3-sulphonato-4,1-phenylene)imino[6-(diethylamino)-1,3,5-triazine-4,2-diyl]imino]]bis(benzene-1,4-disulphonate)</t>
+          <t>Alkanes, C10-13, chloro</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>41098-56-0</t>
+          <t>85535-84-8</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2510,23 +2432,18 @@
       <c r="D91" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].[Na+].[Na+].[Na+].[Na+].CCN(CC)C1=NC(NC2=C(C=CC(=C2)S([O-])(=O)=O)S([O-])(=O)=O)=NC(NC2=CC(=C(C=CC3=C(C=C(NC4=NC(=NC(NC5=C(C=CC(=C5)S([O-])(=O)=O)S([O-])(=O)=O)=N4)N(CC)CC)C=C3)S([O-])(=O)=O)C=C2)S([O-])(=O)=O)=N1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p-xylene</t>
+          <t>Aromatic hydrocarbons, C6-8, naphtha-raffinate pyrolyzate-derived</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>106-42-3</t>
+          <t>68475-70-7</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2537,23 +2454,18 @@
       <c r="D92" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>CC1=CC=C(C)C=C1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2-methyl-p-phenylenediamine</t>
+          <t>Gasoline, pyrolysis, debutanizer bottoms</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>95-70-5</t>
+          <t>68606-10-0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2564,23 +2476,18 @@
       <c r="D93" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>CC1=C(N)C=CC(N)=C1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Allyl alcohol</t>
+          <t>2-methyl-p-phenylenediamine sulfate</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>107-18-6</t>
+          <t>615-50-9</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2591,23 +2498,18 @@
       <c r="D94" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>OCC=C</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ethyl 4-hydroxybenzoate</t>
+          <t>(p-ammoniophenyl)bis(2-hydroxyethyl)ammonium sulphate</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>120-47-8</t>
+          <t>54381-16-7</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2618,131 +2520,106 @@
       <c r="D95" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>CCOC(=O)C1=CC=C(O)C=C1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Trimethyl phosphate</t>
+          <t>Tetrasodium 4,4'-bis[[4-[bis(2-hydroxypropyl)amino]-6-[(4-sulphonatophenyl)amino]-1,3,5-triazin-2-yl]amino]-stilbene-2,2'-disulphonate</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>512-56-1</t>
+          <t>67786-25-8</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>COP(=O)(OC)OC</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Toluene</t>
+          <t>Gases (petroleum), depropanizer dry, propene-rich</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>108-88-3</t>
+          <t>68477-90-7</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>CC1=CC=CC=C1</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>N-(butoxymethyl)acrylamide</t>
+          <t>1,3,5-Triazine-2,4-diamine, N2,N2,N4,N4-tetrabutyl-6-chloro-</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1852-16-0</t>
+          <t>39605-45-3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>CCCCOCNC(=O)C=C</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1,4-Benzenedisulfonic acid, 2,2'-[1,2-ethenediylbis[(3-sulfo-4,1-phenylene)imino[6-[bis(2-hydroxypropyl)amino]-1,3,5-triazine-4,2-diyl]imino]]bis-, sodium salt (1:6)</t>
+          <t>Gases (petroleum), deisobutanizer tower overheads</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>371756-75-1</t>
+          <t>68477-87-2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].[Na+].[Na+].[Na+].[Na+].CC(O)CN(CC(C)O)C1=NC(NC2=CC(=C(C=CC3=C(C=C(NC4=NC(NC5=C(C=CC(=C5)S([O-])(=O)=O)S([O-])(=O)=O)=NC(=N4)N(CC(C)O)CC(C)O)C=C3)S([O-])(=O)=O)C=C2)S([O-])(=O)=O)=NC(NC2=C(C=CC(=C2)S([O-])(=O)=O)S([O-])(=O)=O)=N1</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2-chloroethanol</t>
+          <t>2-chloroacetamide</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>107-07-3</t>
+          <t>79-07-2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2753,23 +2630,18 @@
       <c r="D100" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>OCCCl</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1,2-epoxybutane</t>
+          <t>Tetrakis(hydroxymethyl)phosphonium sulphate(2:1)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>106-88-7</t>
+          <t>55566-30-8</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2780,23 +2652,18 @@
       <c r="D101" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>CCC1CO1</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Undecan-1-ol</t>
+          <t>4-[(morpholinothio)thioxomethyl]morpholine</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>112-42-5</t>
+          <t>13752-51-7</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2807,50 +2674,40 @@
       <c r="D102" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ethanol</t>
+          <t>Octan-1-ol</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>64-17-5</t>
+          <t>111-87-5</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>CCO</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Disodium 4,4'-bis[6-anilino-[4-[bis(2-hydroxyethyl)amino]-1,3,5-triazin-2-yl]amino]stilbene-2,2'-disulphonate</t>
+          <t>Disodium 4,4'-bis[[4-anilino-6-[(2-carbamoylethyl)(2-hydroxyethyl)amino]-1,3,5,-triazin-2-yl]amino]stilbene-2,2'-disulphonate</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4193-55-9</t>
+          <t>27344-06-5</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2861,23 +2718,18 @@
       <c r="D104" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[Na+].[Na+].OCCN(CCO)C1=NC(NC2=CC=C(C=CC3=CC=C(NC4=NC(NC5=CC=CC=C5)=NC(=N4)N(CCO)CCO)C=C3S([O-])(=O)=O)C(=C2)S([O-])(=O)=O)=NC(NC2=CC=CC=C2)=N1</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Hexan-1-ol</t>
+          <t>Aromatic hydrocarbons, C8, catalytic reforming-derived</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>111-27-3</t>
+          <t>91995-18-5</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2888,23 +2740,18 @@
       <c r="D105" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>CCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>o-cresol</t>
+          <t>Solvent naphtha (petroleum), heavy arom.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>95-48-7</t>
+          <t>64742-94-5</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2915,23 +2762,18 @@
       <c r="D106" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>CC1=C(O)C=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>4-hydroxy-2,5-dimethylfuran-2(3H)-one</t>
+          <t>Hydrogen sulphide</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3658-77-3</t>
+          <t>7783-06-4</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2942,23 +2784,18 @@
       <c r="D107" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>CC1OC(C)=C(O)C1=O</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>m-xylene</t>
+          <t>Methyl 4-hydroxybenzoate</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>108-38-3</t>
+          <t>99-76-3</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2969,23 +2806,18 @@
       <c r="D108" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>CC1=CC(C)=CC=C1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>17-hydroxy-19-norpregn-4-ene-3,20-dione 17-acetate</t>
+          <t>2-methyl-1-heptanol</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>31981-44-9</t>
+          <t>60435-70-3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2996,23 +2828,18 @@
       <c r="D109" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[H][C@@]12CC[C@](OC(C)=O)(C(C)=O)[C@@]1(C)CC[C@]1([H])[C@@]3([H])CCC(=O)C=C3CC[C@@]21[H]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Iodine</t>
+          <t>Chlorine dioxide</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7553-56-2</t>
+          <t>10049-04-4</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3023,23 +2850,18 @@
       <c r="D110" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>II</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2-chlorobuta-1,3-diene</t>
+          <t>Residues (petroleum), steam-cracked light, arom.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>126-99-8</t>
+          <t>102110-55-4</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3050,23 +2872,18 @@
       <c r="D111" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>ClC(=C)C=C</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2-methoxyethyl methacrylate</t>
+          <t>5-amino-o-cresol</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6976-93-8</t>
+          <t>2835-95-2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3077,23 +2894,18 @@
       <c r="D112" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>COCCOC(=O)C(C)=C</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Dipotassium tartrate</t>
+          <t>Didodecyl 3,3'-thiodipropionate</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>921-53-9</t>
+          <t>123-28-4</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3104,23 +2916,18 @@
       <c r="D113" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[K+].[K+].O[C@H]([C@@H](O)C([O-])=O)C([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Potassium sodium tartrate</t>
+          <t>Tricarbonyl(methylcyclopentadienyl)manganese</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>304-59-6</t>
+          <t>12108-13-3</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3131,50 +2938,40 @@
       <c r="D114" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>[Na+].[K+].O[C@H]([C@@H](O)C([O-])=O)C([O-])=O</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Buta-1,3-diene</t>
+          <t>Hydrocarbons, C4-11, naphtha-cracking, arom.-free</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>106-99-0</t>
+          <t>92045-63-1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>C=CC=C</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Octadecan-1-ol</t>
+          <t>N-1-naphthylaniline</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>112-92-5</t>
+          <t>90-30-2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3185,23 +2982,18 @@
       <c r="D116" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Methylhydrazine</t>
+          <t>Methyl methacrylate</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>60-34-4</t>
+          <t>80-62-6</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3212,23 +3004,18 @@
       <c r="D117" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>CNN</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1,1-dichloroethylene</t>
+          <t>Acetaldehyde oxime</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>75-35-4</t>
+          <t>107-29-9</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3239,23 +3026,18 @@
       <c r="D118" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>ClC(Cl)=C</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2-ethoxyethyl methacrylate</t>
+          <t>Ligroine</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2370-63-0</t>
+          <t>8032-32-4</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3266,23 +3048,18 @@
       <c r="D119" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>CCOCCOC(=O)C(C)=C</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Docosan-1-ol</t>
+          <t>N-hexane</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>661-19-8</t>
+          <t>110-54-3</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3293,50 +3070,40 @@
       <c r="D120" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCCCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2-methylimidazole</t>
+          <t>Naphtha (petroleum), steam-cracked middle arom.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>693-98-1</t>
+          <t>68516-20-1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>CC1=NC=CN1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Dodecan-1-ol</t>
+          <t>O-(4-bromo-2-chlorophenyl) O-ethyl S-propyl phosphorothioate</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>112-53-8</t>
+          <t>41198-08-7</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3347,23 +3114,18 @@
       <c r="D122" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Icosan-1-ol</t>
+          <t>Hydroxytrimethylsilane</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>629-96-9</t>
+          <t>1066-40-6</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3374,50 +3136,40 @@
       <c r="D123" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Aniline</t>
+          <t>Hydrocarbons, C3-4-rich, petroleum distillate</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>62-53-3</t>
+          <t>68512-91-4</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>NC1=CC=CC=C1</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2-(morpholinothio)benzothiazole</t>
+          <t>Distillates (petroleum), hydrotreated middle, intermediate boiling</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>102-77-2</t>
+          <t>68410-96-8</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3428,23 +3180,18 @@
       <c r="D125" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>C1CN(CCO1)SC1=NC2=C(S1)C=CC=C2</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Decan-1-ol</t>
+          <t>Hydrocarbons, C7-C9, isoalkanes</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>112-30-1</t>
+          <t>64741-66-8</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3455,276 +3202,2254 @@
       <c r="D126" t="inlineStr">
         <is>
           <t>negative</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCO</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>Formamide</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>75-12-7</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Distillates (petroleum), light straight-run gasoline fractionation stabilizer overheads</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>68921-08-4</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Distillates (petroleum), light distillate hydrotreating process, low-boiling</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>68410-97-9</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Petroleum gases, liquefied, sweetened, C4 fraction</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>92045-80-2</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Fuel gases, refinery</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>68308-27-0</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Isobutyl methacrylate</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>97-86-9</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>(tert-butoxymethyl)oxirane</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>7665-72-7</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Talc (Mg3H2(SiO3)4)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>14807-96-6</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Solvent naphtha (petroleum), medium aliph.</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>64742-88-7</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Extracts (petroleum), heavy naphtha solvent</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>64741-98-6</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>N-methylacetamide</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>79-16-3</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Amines, C12-14 (even numbered)-alkyldimethyl, N-oxides</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>308062-28-4</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Aromatic hydrocarbons, C6-10, C8-rich</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>90989-41-6</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>N,N'-methylenediacrylamide</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>110-26-9</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>1,1,1,3,3,3-hexamethyldisilazane</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>999-97-3</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>o-xylene</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>95-47-6</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Naphtha (petroleum), hydrodesulfurized heavy</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>64742-82-1</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Sodium benzoate</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>532-32-1</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Barium dibenzoate</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>533-00-6</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Hydrocarbons, C3</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>68606-26-8</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>4,4'-bis[4-[bis(2-hydroxyethyl)amino]-6-anilino-1,3,5-triazin-2-yl]amino]stilbene-2,2'-disulphonic acid</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>4404-43-7</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Hydrocarbons, C4</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>87741-01-3</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Hexachlorocyclopentadiene</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>77-47-4</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Residues (petroleum), alkylation splitter, C4-rich</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>68513-66-6</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Gases (petroleum), catalytic cracked overheads</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>68409-99-4</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Alcohols, C9-11</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>66455-17-2</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Natural gas (petroleum), raw liq. mix</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>64741-48-6</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Ametryn</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>834-12-8</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Biphenyl-2-ol</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>90-43-7</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Acrylamide</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>79-06-1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1,2,3-trichloropropane</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>96-18-4</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Pentaerythritol tetrakis(3-(3,5-di-tert-butyl-4-hydroxyphenyl)propionate)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>6683-19-8</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Hexadecan-1-ol</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>36653-82-4</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Carbazole</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>86-74-8</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Hydrocarbons, C3-6, C5-rich, steam-cracked naphtha</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>102110-14-5</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Butyl methacrylate</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>97-88-1</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Crotonaldehyde</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>4170-30-3</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Hydrocarbons, C4-12, naphtha-cracking, hydrotreated</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>92045-61-9</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Cyclohexyldimethoxymethylsilane</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>17865-32-6</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Hexasodium 2,2'-[vinylenebis[(3-sulphonato-4,1-phenylene)imino[6-(diethylamino)-1,3,5-triazine-4,2-diyl]imino]]bis(benzene-1,4-disulphonate)</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>41098-56-0</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Naphtha (petroleum), solvent-refined light</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>64741-84-0</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>(1-hydroxyethylidene)bisphosphonic acid, potassium salt</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>67953-76-8</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>p-xylene</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>106-42-3</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2-methyl-p-phenylenediamine</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>95-70-5</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Allyl alcohol</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>107-18-6</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Hydrocarbons, C5-rich</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>68476-55-1</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Naphtha (petroleum), light steam-cracked, debenzenized</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>68527-26-4</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Ethyl 4-hydroxybenzoate</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>120-47-8</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Trimethyl phosphate</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>512-56-1</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Toluene</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>108-88-3</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>N-(butoxymethyl)acrylamide</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1852-16-0</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1,4-Benzenedisulfonic acid, 2,2'-[1,2-ethenediylbis[(3-sulfo-4,1-phenylene)imino[6-[bis(2-hydroxypropyl)amino]-1,3,5-triazine-4,2-diyl]imino]]bis-, sodium salt (1:6)</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>371756-75-1</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Gases (petroleum), straight-run stabilizer off</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>68919-10-8</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2-chloroethanol</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>107-07-3</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1,2-epoxybutane</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>106-88-7</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Undecan-1-ol</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>112-42-5</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Ethanol</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>64-17-5</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Disodium 4,4'-bis[6-anilino-[4-[bis(2-hydroxyethyl)amino]-1,3,5-triazin-2-yl]amino]stilbene-2,2'-disulphonate</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>4193-55-9</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Hexan-1-ol</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>111-27-3</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>o-cresol</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>95-48-7</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>4-hydroxy-2,5-dimethylfuran-2(3H)-one</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>3658-77-3</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>m-xylene</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>108-38-3</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Alkanes, C8-9-iso-</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>246538-71-6</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hydrocarbons, C5-7, C6-rich, ethylene manuf. by-products</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>91723-50-1</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>17-hydroxy-19-norpregn-4-ene-3,20-dione 17-acetate</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>31981-44-9</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Gases (petroleum), C3-4, isobutane-rich</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>68477-33-8</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Iodine</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>7553-56-2</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Silicon</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>7440-21-3</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2-chlorobuta-1,3-diene</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>126-99-8</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Hydrocarbons, C6-rich, hydrotreated light naphtha distillates, solvent-refined</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>101316-67-0</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Tar acids, 3,5-xylenol fraction</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>84989-07-1</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Alcohols, C9-11-branched and linear</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>85711-26-8</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2-methoxyethyl methacrylate</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>6976-93-8</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Alcohols, C7-9</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>66587-56-2</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Naphtha (petroleum), isomerization</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>64741-70-4</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Dipotassium tartrate</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>921-53-9</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Potassium sodium tartrate</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>304-59-6</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Silicic acid, aluminum sodium salt</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1344-00-9</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Undecanol, branched and linear</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>128973-77-3</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Solvent naphtha (coal), xylene-styrene cut</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>85536-20-5</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Buta-1,3-diene</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>106-99-0</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Octadecan-1-ol</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>112-92-5</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Methylhydrazine</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>60-34-4</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Aromatic hydrocarbons, C7-8, ethylene-manuf.-by-product</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>90989-43-8</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1,1-dichloroethylene</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>75-35-4</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Naphtha (petroleum), polymn.</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>64741-72-6</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2-ethoxyethyl methacrylate</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2370-63-0</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Xylene</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1330-20-7</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Docosan-1-ol</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>661-19-8</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2-methylimidazole</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>693-98-1</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Dodecan-1-ol</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>112-53-8</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Icosan-1-ol</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>629-96-9</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Naphtha (petroleum), light catalytic reformed, arom.-free</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>68513-03-1</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Vinyltoluene</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>25013-15-4</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Silicon dioxide</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>7631-86-9</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Aniline</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>62-53-3</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Gases (petroleum), C3-4</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>68131-75-9</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2-(morpholinothio)benzothiazole</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>102-77-2</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Decan-1-ol</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>112-30-1</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
           <t>N-methylformamide</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>123-39-7</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>CNC=O</t>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Hydrocarbons, C5-C7, n-alkanes, isoalkanes, n-hexane rich</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1174918-63-8</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Tin sulphate</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>7488-55-3</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>negative</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100CE31A2AD8A04D04095B1ECC47751CB4F" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="de3819b5c38e695d1520c77a30b48443">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6c08589-172d-430f-b6a4-62c51d456da6" xmlns:ns3="7e64aa66-2342-42ff-b823-72fa13eb9fa0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e41e37b6f0b5bdaee859c7ae025813e" ns2:_="" ns3:_="">
-    <xsd:import namespace="a6c08589-172d-430f-b6a4-62c51d456da6"/>
-    <xsd:import namespace="7e64aa66-2342-42ff-b823-72fa13eb9fa0"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a6c08589-172d-430f-b6a4-62c51d456da6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="10" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="이미지 태그" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0f777d39-a39c-4a0e-b055-0cad81c219ad" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7e64aa66-2342-42ff-b823-72fa13eb9fa0" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{bf2c7d88-e92c-4bbf-9e45-3c93fe8fa0bb}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="7e64aa66-2342-42ff-b823-72fa13eb9fa0">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7e64aa66-2342-42ff-b823-72fa13eb9fa0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6c08589-172d-430f-b6a4-62c51d456da6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198A3BD7-81E8-41FA-940D-DE552E790F09}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{440E3CB5-967A-40F2-B5EA-4C6F45638D5D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6BE1EBD-EDAD-49EF-82E9-C89DCBF54023}"/>
 </file>